--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec4g-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec4g-Lag3.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Clec4g</t>
+  </si>
+  <si>
+    <t>Lag3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Clec4g</t>
-  </si>
-  <si>
-    <t>Lag3</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09101966666666667</v>
+        <v>0.1416773333333333</v>
       </c>
       <c r="H2">
-        <v>0.273059</v>
+        <v>0.425032</v>
       </c>
       <c r="I2">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="J2">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N2">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P2">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q2">
-        <v>0.6225977906947778</v>
+        <v>1.314522015545778</v>
       </c>
       <c r="R2">
-        <v>5.603380116253</v>
+        <v>11.830698139912</v>
       </c>
       <c r="S2">
-        <v>0.09099037906772141</v>
+        <v>0.09869735614707865</v>
       </c>
       <c r="T2">
-        <v>0.09099037906772141</v>
+        <v>0.09869735614707865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09101966666666667</v>
+        <v>0.1416773333333333</v>
       </c>
       <c r="H3">
-        <v>0.273059</v>
+        <v>0.425032</v>
       </c>
       <c r="I3">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="J3">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.245969</v>
       </c>
       <c r="O3">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P3">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q3">
-        <v>0.8569795610189999</v>
+        <v>1.333937855112</v>
       </c>
       <c r="R3">
-        <v>7.712816049171</v>
+        <v>12.005440696008</v>
       </c>
       <c r="S3">
-        <v>0.1252444134493173</v>
+        <v>0.1001551423308775</v>
       </c>
       <c r="T3">
-        <v>0.1252444134493173</v>
+        <v>0.1001551423308774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09101966666666667</v>
+        <v>0.1416773333333333</v>
       </c>
       <c r="H4">
-        <v>0.273059</v>
+        <v>0.425032</v>
       </c>
       <c r="I4">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="J4">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N4">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P4">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q4">
-        <v>0.4941105760622223</v>
+        <v>0.9964528130533336</v>
       </c>
       <c r="R4">
-        <v>4.44699518456</v>
+        <v>8.96807531748</v>
       </c>
       <c r="S4">
-        <v>0.07221244483874603</v>
+        <v>0.07481598406919822</v>
       </c>
       <c r="T4">
-        <v>0.07221244483874605</v>
+        <v>0.0748159840691982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09101966666666667</v>
+        <v>0.1416773333333333</v>
       </c>
       <c r="H5">
-        <v>0.273059</v>
+        <v>0.425032</v>
       </c>
       <c r="I5">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="J5">
-        <v>0.3911510103983578</v>
+        <v>0.4649030121259454</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N5">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O5">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P5">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q5">
-        <v>0.7027461897343333</v>
+        <v>2.546998309552</v>
       </c>
       <c r="R5">
-        <v>6.324715707609</v>
+        <v>22.922984785968</v>
       </c>
       <c r="S5">
-        <v>0.102703773042573</v>
+        <v>0.191234529578791</v>
       </c>
       <c r="T5">
-        <v>0.102703773042573</v>
+        <v>0.191234529578791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1416773333333333</v>
+        <v>0.1630686666666667</v>
       </c>
       <c r="H6">
-        <v>0.425032</v>
+        <v>0.489206</v>
       </c>
       <c r="I6">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="J6">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.840255666666667</v>
+        <v>9.278280333333333</v>
       </c>
       <c r="N6">
-        <v>20.520767</v>
+        <v>27.834841</v>
       </c>
       <c r="O6">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="P6">
-        <v>0.2326221245729483</v>
+        <v>0.2122966588143784</v>
       </c>
       <c r="Q6">
-        <v>0.9691091821715555</v>
+        <v>1.512996802916222</v>
       </c>
       <c r="R6">
-        <v>8.721982639543999</v>
+        <v>13.616971226246</v>
       </c>
       <c r="S6">
-        <v>0.1416317455052269</v>
+        <v>0.1135993026672998</v>
       </c>
       <c r="T6">
-        <v>0.1416317455052269</v>
+        <v>0.1135993026672998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1416773333333333</v>
+        <v>0.1630686666666667</v>
       </c>
       <c r="H7">
-        <v>0.425032</v>
+        <v>0.489206</v>
       </c>
       <c r="I7">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="J7">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>28.245969</v>
       </c>
       <c r="O7">
-        <v>0.3201945287620894</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="P7">
-        <v>0.3201945287620895</v>
+        <v>0.2154323368929792</v>
       </c>
       <c r="Q7">
-        <v>1.333937855112</v>
+        <v>1.535344167846</v>
       </c>
       <c r="R7">
-        <v>12.005440696008</v>
+        <v>13.818097510614</v>
       </c>
       <c r="S7">
-        <v>0.1949501153127721</v>
+        <v>0.1152771945621018</v>
       </c>
       <c r="T7">
-        <v>0.1949501153127721</v>
+        <v>0.1152771945621017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1416773333333333</v>
+        <v>0.1630686666666667</v>
       </c>
       <c r="H8">
-        <v>0.425032</v>
+        <v>0.489206</v>
       </c>
       <c r="I8">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="J8">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.428613333333334</v>
+        <v>7.033255</v>
       </c>
       <c r="N8">
-        <v>16.28584</v>
+        <v>21.099765</v>
       </c>
       <c r="O8">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="P8">
-        <v>0.1846152583504849</v>
+        <v>0.1609281551588013</v>
       </c>
       <c r="Q8">
-        <v>0.7691114607644445</v>
+        <v>1.146903515176667</v>
       </c>
       <c r="R8">
-        <v>6.92200314688</v>
+        <v>10.32213163659</v>
       </c>
       <c r="S8">
-        <v>0.1124028135117388</v>
+        <v>0.08611217108960309</v>
       </c>
       <c r="T8">
-        <v>0.1124028135117389</v>
+        <v>0.08611217108960308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1416773333333333</v>
+        <v>0.1630686666666667</v>
       </c>
       <c r="H9">
-        <v>0.425032</v>
+        <v>0.489206</v>
       </c>
       <c r="I9">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="J9">
-        <v>0.6088489896016421</v>
+        <v>0.5350969878740547</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.720817</v>
+        <v>17.977458</v>
       </c>
       <c r="N9">
-        <v>23.162451</v>
+        <v>53.932374</v>
       </c>
       <c r="O9">
-        <v>0.2625680883144773</v>
+        <v>0.4113428491338411</v>
       </c>
       <c r="P9">
-        <v>0.2625680883144773</v>
+        <v>0.411342849133841</v>
       </c>
       <c r="Q9">
-        <v>1.093864763714667</v>
+        <v>2.931560106116</v>
       </c>
       <c r="R9">
-        <v>9.844782873431999</v>
+        <v>26.384040955044</v>
       </c>
       <c r="S9">
-        <v>0.1598643152719043</v>
+        <v>0.2201083195550501</v>
       </c>
       <c r="T9">
-        <v>0.1598643152719043</v>
+        <v>0.22010831955505</v>
       </c>
     </row>
   </sheetData>
